--- a/original/de/german_talking_clock_audio_list.xlsx
+++ b/original/de/german_talking_clock_audio_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -40,40 +40,16 @@
     <t xml:space="preserve">es ist</t>
   </si>
   <si>
-    <t xml:space="preserve">viertel_nach.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viertel nach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halb.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viertel_vor.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viertel vor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nach.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vor.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vor</t>
-  </si>
-  <si>
     <t xml:space="preserve">uhr.mp3</t>
   </si>
   <si>
     <t xml:space="preserve">uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitternacht.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitternacht</t>
   </si>
 </sst>
 </file>
@@ -386,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,44 +422,48 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+      <c r="B5" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C5,".mp3")</f>
+        <v>1.mp3</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
+      <c r="B6" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C6,".mp3")</f>
+        <v>2.mp3</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C7,".mp3")</f>
+        <v>3.mp3</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
+      <c r="B8" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C8,".mp3")</f>
+        <v>4.mp3</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,10 +472,10 @@
       </c>
       <c r="B9" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C9,".mp3")</f>
-        <v>1.mp3</v>
+        <v>5.mp3</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,10 +484,10 @@
       </c>
       <c r="B10" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C10,".mp3")</f>
-        <v>2.mp3</v>
+        <v>6.mp3</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,10 +496,10 @@
       </c>
       <c r="B11" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C11,".mp3")</f>
-        <v>3.mp3</v>
+        <v>7.mp3</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,10 +508,10 @@
       </c>
       <c r="B12" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C12,".mp3")</f>
-        <v>4.mp3</v>
+        <v>8.mp3</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,10 +520,10 @@
       </c>
       <c r="B13" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C13,".mp3")</f>
-        <v>5.mp3</v>
+        <v>9.mp3</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,10 +532,10 @@
       </c>
       <c r="B14" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C14,".mp3")</f>
-        <v>6.mp3</v>
+        <v>10.mp3</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,10 +544,10 @@
       </c>
       <c r="B15" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C15,".mp3")</f>
-        <v>7.mp3</v>
+        <v>11.mp3</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,10 +556,10 @@
       </c>
       <c r="B16" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C16,".mp3")</f>
-        <v>8.mp3</v>
+        <v>12.mp3</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,10 +568,10 @@
       </c>
       <c r="B17" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C17,".mp3")</f>
-        <v>9.mp3</v>
+        <v>13.mp3</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,10 +580,10 @@
       </c>
       <c r="B18" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C18,".mp3")</f>
-        <v>10.mp3</v>
+        <v>14.mp3</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +592,10 @@
       </c>
       <c r="B19" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C19,".mp3")</f>
-        <v>11.mp3</v>
+        <v>15.mp3</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +604,10 @@
       </c>
       <c r="B20" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C20,".mp3")</f>
-        <v>12.mp3</v>
+        <v>16.mp3</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,10 +616,10 @@
       </c>
       <c r="B21" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C21,".mp3")</f>
-        <v>13.mp3</v>
+        <v>17.mp3</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,10 +628,10 @@
       </c>
       <c r="B22" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C22,".mp3")</f>
-        <v>14.mp3</v>
+        <v>18.mp3</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,10 +640,10 @@
       </c>
       <c r="B23" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C23,".mp3")</f>
-        <v>15.mp3</v>
+        <v>19.mp3</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +652,10 @@
       </c>
       <c r="B24" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C24,".mp3")</f>
-        <v>16.mp3</v>
+        <v>20.mp3</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,10 +664,10 @@
       </c>
       <c r="B25" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C25,".mp3")</f>
-        <v>17.mp3</v>
+        <v>21.mp3</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,10 +676,10 @@
       </c>
       <c r="B26" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C26,".mp3")</f>
-        <v>18.mp3</v>
+        <v>22.mp3</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,10 +688,10 @@
       </c>
       <c r="B27" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C27,".mp3")</f>
-        <v>19.mp3</v>
+        <v>23.mp3</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,10 +700,10 @@
       </c>
       <c r="B28" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C28,".mp3")</f>
-        <v>20.mp3</v>
+        <v>24.mp3</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +712,10 @@
       </c>
       <c r="B29" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C29,".mp3")</f>
-        <v>21.mp3</v>
+        <v>25.mp3</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,10 +724,10 @@
       </c>
       <c r="B30" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C30,".mp3")</f>
-        <v>22.mp3</v>
+        <v>26.mp3</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +736,10 @@
       </c>
       <c r="B31" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C31,".mp3")</f>
-        <v>23.mp3</v>
+        <v>27.mp3</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,10 +748,10 @@
       </c>
       <c r="B32" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C32,".mp3")</f>
-        <v>24.mp3</v>
+        <v>28.mp3</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,10 +760,10 @@
       </c>
       <c r="B33" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C33,".mp3")</f>
-        <v>25.mp3</v>
+        <v>29.mp3</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,10 +772,10 @@
       </c>
       <c r="B34" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C34,".mp3")</f>
-        <v>26.mp3</v>
+        <v>30.mp3</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,10 +784,10 @@
       </c>
       <c r="B35" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C35,".mp3")</f>
-        <v>27.mp3</v>
+        <v>31.mp3</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,10 +796,10 @@
       </c>
       <c r="B36" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C36,".mp3")</f>
-        <v>28.mp3</v>
+        <v>32.mp3</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,10 +808,10 @@
       </c>
       <c r="B37" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C37,".mp3")</f>
-        <v>29.mp3</v>
+        <v>33.mp3</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,136 +820,311 @@
       </c>
       <c r="B38" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(C38,".mp3")</f>
-        <v>30.mp3</v>
+        <v>34.mp3</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C39,".mp3")</f>
+        <v>35.mp3</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C40,".mp3")</f>
+        <v>36.mp3</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C41,".mp3")</f>
+        <v>37.mp3</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C42,".mp3")</f>
+        <v>38.mp3</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C43,".mp3")</f>
+        <v>39.mp3</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C44,".mp3")</f>
+        <v>40.mp3</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C45,".mp3")</f>
+        <v>41.mp3</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C46,".mp3")</f>
+        <v>42.mp3</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C47,".mp3")</f>
+        <v>43.mp3</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C48,".mp3")</f>
+        <v>44.mp3</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C49,".mp3")</f>
+        <v>45.mp3</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C50,".mp3")</f>
+        <v>46.mp3</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C51,".mp3")</f>
+        <v>47.mp3</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C52,".mp3")</f>
+        <v>48.mp3</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+      <c r="A53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C53,".mp3")</f>
+        <v>49.mp3</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C54,".mp3")</f>
+        <v>50.mp3</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C55,".mp3")</f>
+        <v>51.mp3</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C56,".mp3")</f>
+        <v>52.mp3</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C57,".mp3")</f>
+        <v>53.mp3</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C58,".mp3")</f>
+        <v>54.mp3</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C59,".mp3")</f>
+        <v>55.mp3</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+      <c r="A60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C60,".mp3")</f>
+        <v>56.mp3</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
+      <c r="A61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C61,".mp3")</f>
+        <v>57.mp3</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C62,".mp3")</f>
+        <v>58.mp3</v>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(C63,".mp3")</f>
+        <v>59.mp3</v>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
@@ -1108,23 +1263,15 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
@@ -1159,18 +1306,10 @@
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
